--- a/STMCubeMX/iW-CORE-BOARD/TouchGFX/assets/texts/texts.xlsx
+++ b/STMCubeMX/iW-CORE-BOARD/TouchGFX/assets/texts/texts.xlsx
@@ -1,183 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_workspace\packages\TGUI\ui-pooldemo\PoolDemo\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TouchGFX - Typography Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TouchGFX - Translation Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typography Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add additional language columns here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DigitalClock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;time&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital_clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asap-Regular.ttf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallback Character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard Characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard Ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APM :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The pixel size of the font as an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The characters that are used in wildcard strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567890.-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-9,A-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48-57,65-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x30-0x39,0x41-0x48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellipsis Character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x22EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXT ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPOGRAPHY NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIGNMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widget Wildcard Characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0123456789 :APM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Bpp</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TouchGFX - Typography Sheet</t>
+  </si>
+  <si>
+    <t>Text ID</t>
+  </si>
+  <si>
+    <t>TouchGFX - Translation Sheet</t>
+  </si>
+  <si>
+    <t>Typography Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add additional language here (1 to 3 capital letters) - </t>
+  </si>
+  <si>
+    <t>Add additional language here (1 to 3 capital letters) - 2</t>
+  </si>
+  <si>
+    <t>Add additional language here (1 to 3 capital letters) - 3</t>
+  </si>
+  <si>
+    <t>Add additional language here (1 to 3 capital letters) - 4</t>
+  </si>
+  <si>
+    <t>Add additional language columns here</t>
+  </si>
+  <si>
+    <t>Wildcard Ranges</t>
+  </si>
+  <si>
+    <t>Fallback Character</t>
+  </si>
+  <si>
+    <t>Wildcard Characters</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Example 3</t>
+  </si>
+  <si>
+    <t>The pixel size of the font as an integer</t>
+  </si>
+  <si>
+    <t>The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
+  </si>
+  <si>
+    <t>The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>0x1234</t>
+  </si>
+  <si>
+    <t>The characters that are used in wildcard strings</t>
+  </si>
+  <si>
+    <t>1234567890.-</t>
+  </si>
+  <si>
+    <t>AMPM</t>
+  </si>
+  <si>
+    <t>Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
+  </si>
+  <si>
+    <t>0-9,A-F</t>
+  </si>
+  <si>
+    <t>48-57,65-70</t>
+  </si>
+  <si>
+    <t>0x30-0x39,0x41-0x48</t>
+  </si>
+  <si>
+    <t>For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
+  </si>
+  <si>
+    <t>Ellipsis Character</t>
+  </si>
+  <si>
+    <t>The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>0x22EF</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>TextId1</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>New Text</t>
+  </si>
+  <si>
+    <t>TextId2</t>
+  </si>
+  <si>
+    <t>&lt;v&gt;°</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>Widget Wildcard Characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -220,13 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -237,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +246,14 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -261,117 +263,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -383,6 +274,141 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -390,8 +416,17 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -478,49 +513,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -918,12 +946,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H800" totalsRowShown="0" tableBorderDxfId="0">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I799" totalsRowShown="0" tableBorderDxfId="0">
+  <tableColumns count="8">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
     <tableColumn id="3" name="Alignment"/>
     <tableColumn id="4" name="GB"/>
+    <tableColumn id="5" name="Add additional language here (1 to 3 capital letters) - "/>
     <tableColumn id="6" name="Add additional language here (1 to 3 capital letters) - 2"/>
     <tableColumn id="7" name="Add additional language here (1 to 3 capital letters) - 3"/>
     <tableColumn id="8" name="Add additional language here (1 to 3 capital letters) - 4"/>
@@ -1303,241 +1332,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="0" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="0" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="0" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="0" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="0" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="0" customWidth="1"/>
-    <col min="13" max="13" width="84.7109375" style="0" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="0" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="0" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="129" hidden="1" customHeight="1">
+    <row r="1" spans="2:16" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:16" ht="39.95" customHeight="1" thickBot="1">
-      <c r="B2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="4"/>
+    <row r="2" spans="2:16" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="L5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="9">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9">
+        <v>36</v>
+      </c>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="9">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9">
+        <v>8</v>
+      </c>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="M8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="10"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="K5" s="3"/>
-      <c r="L5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="10">
-        <v>20</v>
-      </c>
-      <c r="O5" s="10">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="14"/>
     </row>
-    <row r="6" spans="2:16">
-      <c r="K6" s="3"/>
-      <c r="L6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10">
-        <v>4</v>
-      </c>
-      <c r="O6" s="10">
-        <v>8</v>
-      </c>
-      <c r="P6" s="11"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="15"/>
     </row>
-    <row r="7" spans="2:16">
-      <c r="K7" s="3"/>
-      <c r="L7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="K8" s="3"/>
-      <c r="L8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="K9" s="3"/>
-      <c r="L9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="K10" s="3"/>
-      <c r="L10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="K11" s="3"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="M12" s="21" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="2">
@@ -1548,23 +1595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="0" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="129" hidden="1" customHeight="1">
+    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -1572,66 +1620,87 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
+      <c r="I1"/>
     </row>
-    <row r="2" spans="2:9" ht="39.95" customHeight="1">
-      <c r="B2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
-  <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/STMCubeMX/iW-CORE-BOARD/TouchGFX/assets/texts/texts.xlsx
+++ b/STMCubeMX/iW-CORE-BOARD/TouchGFX/assets/texts/texts.xlsx
@@ -1,185 +1,2335 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_workspace\packages\TGUI\ui-pooldemo\PoolDemo\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
-    <sheet name="Translation" sheetId="2" r:id="rId2"/>
+    <sheet name="Translation" sheetId="4" r:id="rId2"/>
+    <sheet name="xl_DCF_History" sheetId="5" state="veryHidden" r:id="rId3"/>
+    <sheet name="Classified as UnClassified" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
-  <si>
-    <t>Font</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Bpp</t>
-  </si>
-  <si>
-    <t>Alignment</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>TouchGFX - Typography Sheet</t>
-  </si>
-  <si>
-    <t>Text ID</t>
-  </si>
-  <si>
-    <t>TouchGFX - Translation Sheet</t>
-  </si>
-  <si>
-    <t>Typography Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add additional language here (1 to 3 capital letters) - </t>
-  </si>
-  <si>
-    <t>Add additional language here (1 to 3 capital letters) - 2</t>
-  </si>
-  <si>
-    <t>Add additional language here (1 to 3 capital letters) - 3</t>
-  </si>
-  <si>
-    <t>Add additional language here (1 to 3 capital letters) - 4</t>
-  </si>
-  <si>
-    <t>Add additional language columns here</t>
-  </si>
-  <si>
-    <t>Wildcard Ranges</t>
-  </si>
-  <si>
-    <t>Fallback Character</t>
-  </si>
-  <si>
-    <t>Wildcard Characters</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example 1</t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Example 3</t>
-  </si>
-  <si>
-    <t>The pixel size of the font as an integer</t>
-  </si>
-  <si>
-    <t>The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
-  </si>
-  <si>
-    <t>The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>0x1234</t>
-  </si>
-  <si>
-    <t>The characters that are used in wildcard strings</t>
-  </si>
-  <si>
-    <t>1234567890.-</t>
-  </si>
-  <si>
-    <t>AMPM</t>
-  </si>
-  <si>
-    <t>Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
-  </si>
-  <si>
-    <t>0-9,A-F</t>
-  </si>
-  <si>
-    <t>48-57,65-70</t>
-  </si>
-  <si>
-    <t>0x30-0x39,0x41-0x48</t>
-  </si>
-  <si>
-    <t>For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
-  </si>
-  <si>
-    <t>Ellipsis Character</t>
-  </si>
-  <si>
-    <t>The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>0x22EF</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>TextId1</t>
-  </si>
-  <si>
-    <t>LEFT</t>
-  </si>
-  <si>
-    <t>New Text</t>
-  </si>
-  <si>
-    <t>TextId2</t>
-  </si>
-  <si>
-    <t>&lt;v&gt;°</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>Widget Wildcard Characters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203234" uniqueCount="654">
+  <si>
+    <t xml:space="preserve">Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX - Typography Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX - Translation Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallback Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pixel size of the font as an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The characters that are used in wildcard strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890.-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-57,65-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x30-0x39,0x41-0x48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellipsis Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programNameText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SairaCondensed-Medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programLengthText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVE WEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z,0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instructionText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoHeadline1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoHeadline2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoHeadline3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoHeadline4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoText4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load washing machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill in detergent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy the show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA ALLA PUTTANESCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeListElementHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeListElementText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICKEN PASTA SALAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeHeadline7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecipeText7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA, PESTO AND CHORIZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA WITH TUSCAN PESTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACON AND EGG LINGUINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONEBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKSUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡪᢃᡘᢁᡶᢈᢈ᡾᡻᡾᡺᡹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡆᡄᡆᡅᡄᡇᡅᡆᡎᠵᠵᡆᡉᡏᡈᡋᡥᡢᠵᠽᡜᡢᡩᡀᡆᡏᡅᠾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡨᡩᡱᡥ᡺ᢉ᡺ᢇᢈ᡺᡺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡖᡖᡧᡘᡬᡡᡅᡅᡅᡇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡋᡃᡅᡃᡅᡃᡅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᡉᡉᡅᡋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSans-Semibold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSans-SemiboldItalic.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IngredientsHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGREDIENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorizo, pesto and peas make a perfect combination, 
+while adding a squeeze of lemon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This makes a fab family meal or Italian dinner party 
+starter - it's a real taste sensation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearty pasta recipe proves that bacon and eggs 
+should not be restricted to the breakfast table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IngredientsText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSans-Regular.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  4 To 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dried angel hair pasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra virgin olive oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea salt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeled prawns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finely chopped parsley leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra virgin olive oil, to serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSans-Italic.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  200g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  1/3 Cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  1 Teaspoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  Teaspoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  1/4 cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutritionHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1873 KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutritionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;val&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FanKnob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SairaSemiCondensed-Medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Val&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemperatureWheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemperatureWheelCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exo2-SemiBold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeLights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeButtom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeFan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeGrill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeGrillFan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN + GRILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenModeClean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;val&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenBottomBar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exo2-Medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°Chm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;val&gt;h &lt;val2&gt;m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ovenTimerWheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenWheelText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenHeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVEN HEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenTemperatureSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenWheelCenterText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenTimerWheelCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asap-Bold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asap-Regular.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUiSplashTempUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashBathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATHROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashKitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITCHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashHeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP TO WAKE ME UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashWakeUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelWildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBottomline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelHeadlineSelectedItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBathroomSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelWildcardSelectedItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBottomlineSelectedItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelDevicesCenterItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBasement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelLivingRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVING ROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelKitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBedroomSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelBasementSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelLivingRoomSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelKitchenSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIMenuHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECTED DEVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN. 8 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelHeatingUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelHeatingUpCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelIdleCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIWheelDeviceCenterItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR / HUMIDITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHEDULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEKDAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00 AM TO 10:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineBathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineKitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeviceName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeviceInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME CONTROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATHTUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRACTOR HOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHING MACHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIDeviceNameBathtub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIDeviceNameHood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIDeviceNameControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIDeviceNameMachine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIDeviceNameOven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER TEMPERATURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JET SPEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIOvenInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIOvenInfoValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT CONTROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVEL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineBathroomDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineKitchenDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATHROOM - 3 DEVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUIHeadlineRoomTemperatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOM TEMPERATURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITCHEN - 4 DEVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF°:;., </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 °CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashBottomlineHeatingUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeUISplashBottomlineIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti alla puttanesca - infused with garlic, 
+capers, anchovies and chili for a spicy kick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic cloves. Crushed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masterfoods chili fl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARLIC CHILI PRAWN PASTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic creamy pasta salad given a healthy makeover by 
+using buckwheat pasta and a lighter... See more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING PRAWN AND BASIL PASTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This king prawn and pasta meal can be whipped up 
+in just over half an hour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meanwhile, heat oil in a large, deep frying pan over 
+medium-high heat. Add garlic, chili and salt. Cook, stir-
+ring, for 1 to 2 minutes or until fragrant. Add prawns. 
+Cook, stirring, for 3 to 9 minutes or until prawns turn 
+pink and are almost cooked. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add pasta, lemon juice and parsley to pan. Cook and toss
+for 1 minute or until combined and prawns are 
+cooked through. Serve drizzled with oil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP HEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTTOM HEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quick and easy simple prawn, garlic &amp; chili pasta
+recipe, from our authentic Italian cuisine collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook pasta in a large sauce pan of boiling, salted water
+following packet directions until tender. Drain. Cover 
+to keep warm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenSplashClock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:APM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvenSplashAmPm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 : 48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This demo was made possible by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutHeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE POWER OF STM32H750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teamText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The awesome developer team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SairaCondensed-SemiBold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The creative UX &amp;UI team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutHyperlinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWW.MJOLNER.COM/EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE HOW THIS DEMO WAS MADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; min &lt;value&gt; sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET STARTED TODAY. IT'S EASY!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutSmallheadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE TOUCHGFX DESIGNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRUCTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallWidgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallSkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERACTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallInteractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallCustomContainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOM CONTAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallTextHandling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT HANDLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallCodeGeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE GENERATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX Designer is an easy-to-use GUI
+builder in TouchGFX that lets you create the
+visual appearance of your TouchGFX applica-
+tion in an instant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeWidgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeSkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeInteractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeCustomContainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeTextHandling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeCodeGeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutStructureText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutWidgetsTesxt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSkinsText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutInteractionsText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutCustomContainerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutTextHandlingText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutCodeGenerationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add dynamic interactions to create a user-friendly application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX Designer holds a set of ready-to-use graphical skins. 
+Skins will help you create great and consistent prototypes with no 
+need for a graphical designer. You can also insert your own custom 
+graphics anywhere you like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create custom reusable controls for your application to shorten 
+your development process and create a cohesive application, 
+fast and easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify and manage all your fonts and typographies in one place. 
+And Make all your translations. Multiple alphabets and scripts, 
+such as Latin, Cyrillic, Aribic, Chinese, and Japanese are fully supported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX Designer generates and maintains performant C++ code.
+The code generated by the tool will be completely separate from 
+the code written by you. The code can be extended in any way you like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With wide selection of customizable widgets, such as a swipe container
+and cycle progress, you can effortlessly create a stunning prototype 
+that reflects your brand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeExamples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLES AND DEMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallExamples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutExamplesText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot of smal examples showing one feature or widget are available 
+as full projects. Further some full demo applications are available as 
+full projects within the designer, all free to use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutLargeRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutSmallRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutRunText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All STM32 display kits are available as Applications Templates. One click 
+and you get the full Board support package, ready to run and flash 
+example, demo or you own prototype.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUN ON A STM32 BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READY-TO-USE SKINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutScrollWheelSmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutScrollWheelLarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOW TO GET STARTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPYRIGHT® 2019 - MJOLNER INFORMATICS / ST MICROELECTRONICS - ALLRIGHTS RESERVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutRights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPS / MCU:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 / 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- and the brilliant video playback capabilities of this board!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have made it easy to get started with TouchGFX solutions on
+ST boards. From concept to prototype - we've got you covered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Designer cuts hours of your development, as it automatically
+generates and flashes code to your board without compromizing
+the quality of your application. We saved a bunch of time doing the
+creation of this demo for you. Check out some  of the features below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX Designer lets you create multiple screens while 
+providing a clear of screen content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.st.com/touchgfx/STM32demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On this board, you'll find all ressources necce-
+sary to re-create this demo on your own.
+It's not that tricky. Go here to download:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.mjolner.com/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for more information, instuctions videos and complimentary re-
+sources. And try for yourself. We standby to help you succeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please insert USB containing BehindTheDemo.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert USB to play video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED ASSISTANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach out to Mjølner Informatics, the birth
+place of TouchGFX. They can help you out
+from idea to product or any step between.
+Visit them at:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWW.ST.COM/STM32GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUT WAIT, THERE'S MORE. YOU CAN SCROLL THE PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application in TouchGFX Designer under ON-LINE APPLICATION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it into your own application running on the STM32H750 DK or your custom board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the 
+STM32H750 DK or your custom board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the 
+STM32H750 DK or your custom board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from ST.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The creative UX &amp; UI team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. 
+You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H750 DK or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this application 
+in TouchGFX Designer under ON-LINE APPLICATION.
+Flash it to the STM32H750 DK, or rework it, turning it 
+into your own application running on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutInsertUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutNoVideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not finde BehindTheVideo.avi on USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not find BehindTheVideo.avi on USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutNoVideoUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AboutNoVideoSim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not find BehindTheVideo.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please insert a USB containing BehindTheDemo.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF°:;., +-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Designer cuts hours of your development, as it automatically
+generates and flashes code to your board without compromizing
+the quality of your application. We saved a bunch of time doing the
+creation of this demo for you. Check out some of the features below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find the complete project of this 
+application in TouchGFX Designer 
+under ON-LINE APPLICATION. Flash it to 
+the STM32H750 DK, or rework it, turning it 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into your own application running on the STM32H750 DK 
+or your custom board. You can download TouchGFX from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not find BehindTheDemo.avi on USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert a USB containing BehindTheDemo.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not find BehindTheDemo.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -232,8 +2382,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +2417,13 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -420,17 +2590,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -512,8 +2673,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,13 +2710,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="81" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="82">
+    <cellStyle name="Accent1" xfId="81" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 10 2" xfId="2"/>
@@ -637,23 +2803,7 @@
     <cellStyle name="Normal 8" xfId="79"/>
     <cellStyle name="Normal 9" xfId="80"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -892,13 +3042,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight9 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -913,18 +3063,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:J100" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:I100" totalsRowShown="0" tableBorderDxfId="9">
   <sortState ref="B4:E6">
     <sortCondition descending="1" ref="B3:B65536"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="8">
     <tableColumn id="1" name="Typography Name"/>
     <tableColumn id="2" name="Font"/>
     <tableColumn id="3" name="Size"/>
     <tableColumn id="4" name="Bpp"/>
     <tableColumn id="5" name="Fallback Character"/>
     <tableColumn id="6" name="Wildcard Characters"/>
-    <tableColumn id="9" name="Widget Wildcard Characters"/>
     <tableColumn id="7" name="Wildcard Ranges"/>
     <tableColumn id="8" name="Ellipsis Character"/>
   </tableColumns>
@@ -933,31 +3082,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="L4:P10" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="K4:O10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Example 1" dataDxfId="3"/>
-    <tableColumn id="4" name="Example 2" dataDxfId="2"/>
-    <tableColumn id="5" name="Example 3" dataDxfId="1"/>
+    <tableColumn id="1" name="Column" dataDxfId="4"/>
+    <tableColumn id="2" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" name="Example 1" dataDxfId="2"/>
+    <tableColumn id="4" name="Example 2" dataDxfId="1"/>
+    <tableColumn id="5" name="Example 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I799" totalsRowShown="0" tableBorderDxfId="0">
-  <tableColumns count="8">
-    <tableColumn id="1" name="Text ID"/>
-    <tableColumn id="2" name="Typography Name"/>
-    <tableColumn id="3" name="Alignment"/>
-    <tableColumn id="4" name="GB"/>
-    <tableColumn id="5" name="Add additional language here (1 to 3 capital letters) - "/>
-    <tableColumn id="6" name="Add additional language here (1 to 3 capital letters) - 2"/>
-    <tableColumn id="7" name="Add additional language here (1 to 3 capital letters) - 3"/>
-    <tableColumn id="8" name="Add additional language here (1 to 3 capital letters) - 4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1332,55 +3465,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" style="0" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="0" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="0" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="0" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="0" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="0" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="0" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:16" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:15" ht="39.95" customHeight="1" thickBot="1">
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B3" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -1392,199 +3523,1112 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="L5" s="7" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
+      <c r="L5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="9">
+        <v>20</v>
       </c>
       <c r="N5" s="9">
-        <v>20</v>
-      </c>
-      <c r="O5" s="9">
         <v>36</v>
       </c>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
       <c r="D6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="L6" s="7" t="s">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="9">
+        <v>8</v>
+      </c>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="9">
+      <c r="M9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="O6" s="9">
-        <v>8</v>
-      </c>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="L12" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27">
         <v>26</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L8" s="7" t="s">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" t="s">
+        <v>326</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>382</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>374</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42">
         <v>16</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L9" s="11" t="s">
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43">
         <v>14</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" t="s">
+        <v>397</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="2">
@@ -1595,112 +4639,3588 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F223"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.42578125" style="0" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="0" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="0" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="0" customWidth="1"/>
+    <col min="6" max="6" width="140.42578125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="1" spans="2:6" ht="3.75" customHeight="1"/>
+    <row r="2" spans="2:6" ht="33" customHeight="1">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" s="22" customFormat="1">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
+        <v>277</v>
+      </c>
+      <c r="C108" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>293</v>
+      </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>294</v>
+      </c>
+      <c r="C120" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" t="s">
+        <v>294</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" t="s">
+        <v>303</v>
+      </c>
+      <c r="C126" t="s">
+        <v>294</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>279</v>
+      </c>
+      <c r="D133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" t="s">
+        <v>321</v>
+      </c>
+      <c r="C134" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" t="s">
+        <v>325</v>
+      </c>
+      <c r="C135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" t="s">
+        <v>323</v>
+      </c>
+      <c r="C136" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>324</v>
+      </c>
+      <c r="C138" t="s">
+        <v>314</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" t="s">
+        <v>332</v>
+      </c>
+      <c r="C139" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" t="s">
+        <v>315</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" t="s">
+        <v>279</v>
+      </c>
+      <c r="D149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" t="s">
+        <v>264</v>
+      </c>
+      <c r="D151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" t="s">
+        <v>262</v>
+      </c>
+      <c r="D152" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" t="s">
+        <v>37</v>
+      </c>
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" t="s">
+        <v>349</v>
+      </c>
+      <c r="C154" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" t="s">
+        <v>265</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" t="s">
+        <v>354</v>
+      </c>
+      <c r="C156" t="s">
+        <v>240</v>
+      </c>
+      <c r="D156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s">
+        <v>251</v>
+      </c>
+      <c r="D157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" t="s">
+        <v>357</v>
+      </c>
+      <c r="C158" t="s">
+        <v>251</v>
+      </c>
+      <c r="D158" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" t="s">
+        <v>240</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" t="s">
+        <v>373</v>
+      </c>
+      <c r="D160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C161" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" t="s">
+        <v>373</v>
+      </c>
+      <c r="D162" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" t="s">
+        <v>373</v>
+      </c>
+      <c r="D163" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" t="s">
+        <v>373</v>
+      </c>
+      <c r="D164" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" t="s">
+        <v>383</v>
+      </c>
+      <c r="D165" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" t="s">
+        <v>384</v>
+      </c>
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>391</v>
+      </c>
+      <c r="C168" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" t="s">
+        <v>394</v>
+      </c>
+      <c r="D170" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" t="s">
+        <v>400</v>
+      </c>
+      <c r="D171" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" t="s">
+        <v>400</v>
+      </c>
+      <c r="D172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
+        <v>403</v>
+      </c>
+      <c r="C173" t="s">
+        <v>400</v>
+      </c>
+      <c r="D173" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" t="s">
+        <v>404</v>
+      </c>
+      <c r="C174" t="s">
+        <v>390</v>
+      </c>
+      <c r="D174" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>406</v>
+      </c>
+      <c r="C175" t="s">
+        <v>394</v>
+      </c>
+      <c r="D175" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
+        <v>420</v>
+      </c>
+      <c r="C176" t="s">
+        <v>466</v>
+      </c>
+      <c r="D176" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>422</v>
+      </c>
+      <c r="C177" t="s">
+        <v>466</v>
+      </c>
+      <c r="D177" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
+        <v>424</v>
+      </c>
+      <c r="C178" t="s">
+        <v>466</v>
+      </c>
+      <c r="D178" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>426</v>
+      </c>
+      <c r="C179" t="s">
+        <v>466</v>
+      </c>
+      <c r="D179" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>427</v>
+      </c>
+      <c r="C180" t="s">
+        <v>466</v>
+      </c>
+      <c r="D180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>429</v>
+      </c>
+      <c r="C181" t="s">
+        <v>466</v>
+      </c>
+      <c r="D181" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
+        <v>431</v>
+      </c>
+      <c r="C182" t="s">
+        <v>466</v>
+      </c>
+      <c r="D182" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
+        <v>433</v>
+      </c>
+      <c r="C183" t="s">
+        <v>467</v>
+      </c>
+      <c r="D183" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" t="s">
+        <v>435</v>
+      </c>
+      <c r="C184" t="s">
+        <v>467</v>
+      </c>
+      <c r="D184" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" t="s">
+        <v>467</v>
+      </c>
+      <c r="D185" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
+        <v>437</v>
+      </c>
+      <c r="C186" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" t="s">
+        <v>438</v>
+      </c>
+      <c r="C187" t="s">
+        <v>467</v>
+      </c>
+      <c r="D187" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" t="s">
+        <v>467</v>
+      </c>
+      <c r="D188" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C189" t="s">
+        <v>467</v>
+      </c>
+      <c r="D189" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" t="s">
+        <v>441</v>
+      </c>
+      <c r="C190" t="s">
+        <v>394</v>
+      </c>
+      <c r="D190" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" t="s">
+        <v>394</v>
+      </c>
+      <c r="D191" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192" t="s">
+        <v>394</v>
+      </c>
+      <c r="D192" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" t="s">
+        <v>444</v>
+      </c>
+      <c r="C193" t="s">
+        <v>394</v>
+      </c>
+      <c r="D193" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" t="s">
+        <v>394</v>
+      </c>
+      <c r="D194" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" t="s">
+        <v>394</v>
+      </c>
+      <c r="D195" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" t="s">
+        <v>394</v>
+      </c>
+      <c r="D196" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" t="s">
+        <v>455</v>
+      </c>
+      <c r="C197" t="s">
+        <v>467</v>
+      </c>
+      <c r="D197" t="s">
+        <v>37</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" t="s">
+        <v>466</v>
+      </c>
+      <c r="D198" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="45">
+      <c r="B199" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" t="s">
+        <v>394</v>
+      </c>
+      <c r="D199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="60">
+      <c r="B200" t="s">
+        <v>460</v>
+      </c>
+      <c r="C200" t="s">
+        <v>467</v>
+      </c>
+      <c r="D200" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" t="s">
+        <v>461</v>
+      </c>
+      <c r="C201" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="45">
+      <c r="B202" t="s">
+        <v>462</v>
+      </c>
+      <c r="C202" t="s">
+        <v>394</v>
+      </c>
+      <c r="D202" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" ht="45">
+      <c r="B203" t="s">
+        <v>582</v>
+      </c>
+      <c r="C203" t="s">
+        <v>467</v>
+      </c>
+      <c r="D203" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" ht="45">
+      <c r="B204" t="s">
+        <v>588</v>
+      </c>
+      <c r="C204" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" t="s">
+        <v>589</v>
+      </c>
+      <c r="C205" t="s">
+        <v>467</v>
+      </c>
+      <c r="D205" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6"/>
+    <row r="207" spans="2:6"/>
+    <row r="208" spans="2:6"/>
+    <row r="209" spans="2:6"/>
+    <row r="210" spans="2:6"/>
+    <row r="211" spans="2:6"/>
+    <row r="212" spans="2:6"/>
+    <row r="213" spans="2:6"/>
+    <row r="214" spans="2:6"/>
+    <row r="215" spans="2:6"/>
+    <row r="216" spans="2:6" ht="60"/>
+    <row r="217" spans="2:6"/>
+    <row r="218" spans="2:6"/>
+    <row r="219" spans="2:6"/>
+    <row r="220" spans="2:6"/>
+    <row r="221" spans="2:6"/>
+    <row r="222" spans="2:6"/>
+    <row r="223" spans="2:6"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="DCFIdentifier" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>